--- a/Data/Processed/Angiosperms/missing_powo_ipni/Lythraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Lythraceae.xlsx
@@ -3787,7 +3787,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 13(2): 234. 1877 [1 Oct 1877] </t>
+          <t>Fl. Bras. (Martius) 13(2): 234. 1877 [1 Oct 1877]</t>
         </is>
       </c>
       <c r="J290" t="b">
@@ -16534,7 +16534,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 13(2): 234. 1877 [1 Oct 1877] </t>
+          <t>Fl. Bras. (Martius) 13(2): 234. 1877 [1 Oct 1877]</t>
         </is>
       </c>
       <c r="J291" t="b">
